--- a/Klass_Log.xlsx
+++ b/Klass_Log.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/nils_kvilvang_inn_no/Documents/Dokumenter/Undervisning/AKA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47632EB8-EAE6-4845-BA9F-79F69F82AC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{47632EB8-EAE6-4845-BA9F-79F69F82AC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88AA773A-4F6F-4A81-A4D0-54577D84B3A4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Social_Network_Ads" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,11 +881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E245" sqref="E245"/>
+      <selection activeCell="E483" sqref="E483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,6 +3651,2756 @@
         <v>1</v>
       </c>
     </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>45</v>
+      </c>
+      <c r="B252">
+        <v>520000</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>46</v>
+      </c>
+      <c r="B253">
+        <v>560000</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>48</v>
+      </c>
+      <c r="B254">
+        <v>580000</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>45</v>
+      </c>
+      <c r="B255">
+        <v>440000</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>47</v>
+      </c>
+      <c r="B256">
+        <v>980000</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>48</v>
+      </c>
+      <c r="B257">
+        <v>820000</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>29</v>
+      </c>
+      <c r="B258">
+        <v>860000</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>19</v>
+      </c>
+      <c r="B259">
+        <v>1400000</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>28</v>
+      </c>
+      <c r="B260">
+        <v>1780000</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>34</v>
+      </c>
+      <c r="B261">
+        <v>860000</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>30</v>
+      </c>
+      <c r="B262">
+        <v>1580000</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>20</v>
+      </c>
+      <c r="B263">
+        <v>720000</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>26</v>
+      </c>
+      <c r="B264">
+        <v>1600000</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>35</v>
+      </c>
+      <c r="B265">
+        <v>440000</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>35</v>
+      </c>
+      <c r="B266">
+        <v>780000</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>49</v>
+      </c>
+      <c r="B267">
+        <v>1480000</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>39</v>
+      </c>
+      <c r="B268">
+        <v>2680000</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>41</v>
+      </c>
+      <c r="B269">
+        <v>1420000</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>58</v>
+      </c>
+      <c r="B270">
+        <v>2020000</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>25</v>
+      </c>
+      <c r="B271">
+        <v>440000</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>24</v>
+      </c>
+      <c r="B272">
+        <v>460000</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>31</v>
+      </c>
+      <c r="B273">
+        <v>680000</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>26</v>
+      </c>
+      <c r="B274">
+        <v>320000</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>31</v>
+      </c>
+      <c r="B275">
+        <v>1420000</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>32</v>
+      </c>
+      <c r="B276">
+        <v>2340000</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>33</v>
+      </c>
+      <c r="B277">
+        <v>860000</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>26</v>
+      </c>
+      <c r="B278">
+        <v>700000</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>27</v>
+      </c>
+      <c r="B279">
+        <v>1780000</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>26</v>
+      </c>
+      <c r="B280">
+        <v>1720000</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>38</v>
+      </c>
+      <c r="B281">
+        <v>1600000</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>39</v>
+      </c>
+      <c r="B282">
+        <v>1420000</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>37</v>
+      </c>
+      <c r="B283">
+        <v>1420000</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>38</v>
+      </c>
+      <c r="B284">
+        <v>1220000</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>37</v>
+      </c>
+      <c r="B285">
+        <v>1100000</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>42</v>
+      </c>
+      <c r="B286">
+        <v>1600000</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>40</v>
+      </c>
+      <c r="B287">
+        <v>1140000</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>35</v>
+      </c>
+      <c r="B288">
+        <v>1500000</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>36</v>
+      </c>
+      <c r="B289">
+        <v>1040000</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>40</v>
+      </c>
+      <c r="B290">
+        <v>1180000</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>41</v>
+      </c>
+      <c r="B291">
+        <v>1180000</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>36</v>
+      </c>
+      <c r="B292">
+        <v>1500000</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>37</v>
+      </c>
+      <c r="B293">
+        <v>1440000</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>40</v>
+      </c>
+      <c r="B294">
+        <v>1500000</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>35</v>
+      </c>
+      <c r="B295">
+        <v>1060000</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>41</v>
+      </c>
+      <c r="B296">
+        <v>1020000</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>39</v>
+      </c>
+      <c r="B297">
+        <v>1220000</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>23</v>
+      </c>
+      <c r="B298">
+        <v>1260000</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>20</v>
+      </c>
+      <c r="B299">
+        <v>1640000</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>30</v>
+      </c>
+      <c r="B300">
+        <v>2140000</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>28</v>
+      </c>
+      <c r="B301">
+        <v>1180000</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>19</v>
+      </c>
+      <c r="B302">
+        <v>500000</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>19</v>
+      </c>
+      <c r="B303">
+        <v>1700000</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>18</v>
+      </c>
+      <c r="B304">
+        <v>1360000</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>49</v>
+      </c>
+      <c r="B305">
+        <v>1300000</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>40</v>
+      </c>
+      <c r="B306">
+        <v>1560000</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>46</v>
+      </c>
+      <c r="B307">
+        <v>1920000</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>59</v>
+      </c>
+      <c r="B308">
+        <v>2860000</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>41</v>
+      </c>
+      <c r="B309">
+        <v>1600000</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>35</v>
+      </c>
+      <c r="B310">
+        <v>1820000</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>37</v>
+      </c>
+      <c r="B311">
+        <v>2880000</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>60</v>
+      </c>
+      <c r="B312">
+        <v>2040000</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>35</v>
+      </c>
+      <c r="B313">
+        <v>1200000</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>37</v>
+      </c>
+      <c r="B314">
+        <v>1060000</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>36</v>
+      </c>
+      <c r="B315">
+        <v>2520000</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>56</v>
+      </c>
+      <c r="B316">
+        <v>2660000</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>40</v>
+      </c>
+      <c r="B317">
+        <v>1440000</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>42</v>
+      </c>
+      <c r="B318">
+        <v>1600000</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>35</v>
+      </c>
+      <c r="B319">
+        <v>2940000</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>39</v>
+      </c>
+      <c r="B320">
+        <v>840000</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>40</v>
+      </c>
+      <c r="B321">
+        <v>2140000</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>56</v>
+      </c>
+      <c r="B322">
+        <v>2660000</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>40</v>
+      </c>
+      <c r="B323">
+        <v>1440000</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>42</v>
+      </c>
+      <c r="B324">
+        <v>1600000</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>35</v>
+      </c>
+      <c r="B325">
+        <v>2940000</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>39</v>
+      </c>
+      <c r="B326">
+        <v>840000</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>40</v>
+      </c>
+      <c r="B327">
+        <v>2140000</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>49</v>
+      </c>
+      <c r="B328">
+        <v>1720000</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>38</v>
+      </c>
+      <c r="B329">
+        <v>2240000</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>46</v>
+      </c>
+      <c r="B330">
+        <v>1580000</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>40</v>
+      </c>
+      <c r="B331">
+        <v>1140000</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>37</v>
+      </c>
+      <c r="B332">
+        <v>1600000</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>46</v>
+      </c>
+      <c r="B333">
+        <v>1640000</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>53</v>
+      </c>
+      <c r="B334">
+        <v>2860000</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>42</v>
+      </c>
+      <c r="B335">
+        <v>2980000</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>38</v>
+      </c>
+      <c r="B336">
+        <v>1180000</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>50</v>
+      </c>
+      <c r="B337">
+        <v>1760000</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>56</v>
+      </c>
+      <c r="B338">
+        <v>2080000</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>46</v>
+      </c>
+      <c r="B339">
+        <v>560000</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>48</v>
+      </c>
+      <c r="B340">
+        <v>580000</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>45</v>
+      </c>
+      <c r="B341">
+        <v>440000</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>47</v>
+      </c>
+      <c r="B342">
+        <v>980000</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>48</v>
+      </c>
+      <c r="B343">
+        <v>820000</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>45</v>
+      </c>
+      <c r="B344">
+        <v>440000</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>46</v>
+      </c>
+      <c r="B345">
+        <v>460000</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>47</v>
+      </c>
+      <c r="B346">
+        <v>400000</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>49</v>
+      </c>
+      <c r="B347">
+        <v>560000</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>47</v>
+      </c>
+      <c r="B348">
+        <v>600000</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>29</v>
+      </c>
+      <c r="B349">
+        <v>860000</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>31</v>
+      </c>
+      <c r="B350">
+        <v>360000</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>31</v>
+      </c>
+      <c r="B351">
+        <v>1480000</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>27</v>
+      </c>
+      <c r="B352">
+        <v>2740000</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>21</v>
+      </c>
+      <c r="B353">
+        <v>320000</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>28</v>
+      </c>
+      <c r="B354">
+        <v>880000</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>27</v>
+      </c>
+      <c r="B355">
+        <v>1800000</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>35</v>
+      </c>
+      <c r="B356">
+        <v>540000</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>33</v>
+      </c>
+      <c r="B357">
+        <v>560000</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>30</v>
+      </c>
+      <c r="B358">
+        <v>980000</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>39</v>
+      </c>
+      <c r="B359">
+        <v>840000</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>40</v>
+      </c>
+      <c r="B360">
+        <v>2140000</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>49</v>
+      </c>
+      <c r="B361">
+        <v>1720000</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>38</v>
+      </c>
+      <c r="B362">
+        <v>2240000</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>46</v>
+      </c>
+      <c r="B363">
+        <v>1580000</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>40</v>
+      </c>
+      <c r="B364">
+        <v>1140000</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>37</v>
+      </c>
+      <c r="B365">
+        <v>1600000</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>46</v>
+      </c>
+      <c r="B366">
+        <v>1640000</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>53</v>
+      </c>
+      <c r="B367">
+        <v>2860000</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>42</v>
+      </c>
+      <c r="B368">
+        <v>2980000</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>38</v>
+      </c>
+      <c r="B369">
+        <v>1180000</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>50</v>
+      </c>
+      <c r="B370">
+        <v>1760000</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>56</v>
+      </c>
+      <c r="B371">
+        <v>2080000</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>46</v>
+      </c>
+      <c r="B372">
+        <v>560000</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>48</v>
+      </c>
+      <c r="B373">
+        <v>580000</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>45</v>
+      </c>
+      <c r="B374">
+        <v>440000</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>47</v>
+      </c>
+      <c r="B375">
+        <v>980000</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>20</v>
+      </c>
+      <c r="B376">
+        <v>1480000</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>26</v>
+      </c>
+      <c r="B377">
+        <v>300000</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>41</v>
+      </c>
+      <c r="B378">
+        <v>900000</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>31</v>
+      </c>
+      <c r="B379">
+        <v>1520000</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>36</v>
+      </c>
+      <c r="B380">
+        <v>1000000</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>40</v>
+      </c>
+      <c r="B381">
+        <v>940000</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>31</v>
+      </c>
+      <c r="B382">
+        <v>300000</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>46</v>
+      </c>
+      <c r="B383">
+        <v>1180000</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>29</v>
+      </c>
+      <c r="B384">
+        <v>1500000</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>26</v>
+      </c>
+      <c r="B385">
+        <v>600000</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>32</v>
+      </c>
+      <c r="B386">
+        <v>2700000</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>32</v>
+      </c>
+      <c r="B387">
+        <v>2000000</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>25</v>
+      </c>
+      <c r="B388">
+        <v>1800000</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>37</v>
+      </c>
+      <c r="B389">
+        <v>660000</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>35</v>
+      </c>
+      <c r="B390">
+        <v>760000</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>33</v>
+      </c>
+      <c r="B391">
+        <v>1380000</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>18</v>
+      </c>
+      <c r="B392">
+        <v>1720000</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>22</v>
+      </c>
+      <c r="B393">
+        <v>1100000</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>35</v>
+      </c>
+      <c r="B394">
+        <v>1420000</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>29</v>
+      </c>
+      <c r="B395">
+        <v>2960000</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>41</v>
+      </c>
+      <c r="B396">
+        <v>1020000</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>39</v>
+      </c>
+      <c r="B397">
+        <v>1220000</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>23</v>
+      </c>
+      <c r="B398">
+        <v>1260000</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>20</v>
+      </c>
+      <c r="B399">
+        <v>1640000</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>30</v>
+      </c>
+      <c r="B400">
+        <v>2140000</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>28</v>
+      </c>
+      <c r="B401">
+        <v>1180000</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>19</v>
+      </c>
+      <c r="B402">
+        <v>500000</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>19</v>
+      </c>
+      <c r="B403">
+        <v>1700000</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>18</v>
+      </c>
+      <c r="B404">
+        <v>1360000</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>49</v>
+      </c>
+      <c r="B405">
+        <v>1300000</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>40</v>
+      </c>
+      <c r="B406">
+        <v>1560000</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>46</v>
+      </c>
+      <c r="B407">
+        <v>1920000</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>59</v>
+      </c>
+      <c r="B408">
+        <v>2860000</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>41</v>
+      </c>
+      <c r="B409">
+        <v>1600000</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>35</v>
+      </c>
+      <c r="B410">
+        <v>1820000</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>37</v>
+      </c>
+      <c r="B411">
+        <v>2880000</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>60</v>
+      </c>
+      <c r="B412">
+        <v>2040000</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>35</v>
+      </c>
+      <c r="B413">
+        <v>1200000</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>37</v>
+      </c>
+      <c r="B414">
+        <v>1060000</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>36</v>
+      </c>
+      <c r="B415">
+        <v>2520000</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>56</v>
+      </c>
+      <c r="B416">
+        <v>2660000</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>40</v>
+      </c>
+      <c r="B417">
+        <v>1440000</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>42</v>
+      </c>
+      <c r="B418">
+        <v>1600000</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>35</v>
+      </c>
+      <c r="B419">
+        <v>2940000</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>39</v>
+      </c>
+      <c r="B420">
+        <v>840000</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>40</v>
+      </c>
+      <c r="B421">
+        <v>2140000</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>56</v>
+      </c>
+      <c r="B422">
+        <v>2660000</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>40</v>
+      </c>
+      <c r="B423">
+        <v>1440000</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>42</v>
+      </c>
+      <c r="B424">
+        <v>1600000</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>35</v>
+      </c>
+      <c r="B425">
+        <v>2940000</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>39</v>
+      </c>
+      <c r="B426">
+        <v>840000</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>40</v>
+      </c>
+      <c r="B427">
+        <v>2140000</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>26</v>
+      </c>
+      <c r="B428">
+        <v>320000</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>31</v>
+      </c>
+      <c r="B429">
+        <v>1420000</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>32</v>
+      </c>
+      <c r="B430">
+        <v>2340000</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>33</v>
+      </c>
+      <c r="B431">
+        <v>860000</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>33</v>
+      </c>
+      <c r="B432">
+        <v>1200000</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>31</v>
+      </c>
+      <c r="B433">
+        <v>1320000</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>20</v>
+      </c>
+      <c r="B434">
+        <v>1640000</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>33</v>
+      </c>
+      <c r="B435">
+        <v>820000</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>35</v>
+      </c>
+      <c r="B436">
+        <v>1440000</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>28</v>
+      </c>
+      <c r="B437">
+        <v>640000</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>24</v>
+      </c>
+      <c r="B438">
+        <v>1680000</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>19</v>
+      </c>
+      <c r="B439">
+        <v>520000</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>29</v>
+      </c>
+      <c r="B440">
+        <v>860000</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>19</v>
+      </c>
+      <c r="B441">
+        <v>1400000</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>28</v>
+      </c>
+      <c r="B442">
+        <v>1780000</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>34</v>
+      </c>
+      <c r="B443">
+        <v>860000</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>30</v>
+      </c>
+      <c r="B444">
+        <v>1580000</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>20</v>
+      </c>
+      <c r="B445">
+        <v>720000</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>26</v>
+      </c>
+      <c r="B446">
+        <v>1600000</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>35</v>
+      </c>
+      <c r="B447">
+        <v>440000</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>35</v>
+      </c>
+      <c r="B448">
+        <v>780000</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>49</v>
+      </c>
+      <c r="B449">
+        <v>1480000</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>39</v>
+      </c>
+      <c r="B450">
+        <v>2680000</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>41</v>
+      </c>
+      <c r="B451">
+        <v>1420000</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>58</v>
+      </c>
+      <c r="B452">
+        <v>2020000</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>47</v>
+      </c>
+      <c r="B453">
+        <v>940000</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>55</v>
+      </c>
+      <c r="B454">
+        <v>2600000</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>52</v>
+      </c>
+      <c r="B455">
+        <v>2280000</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>40</v>
+      </c>
+      <c r="B456">
+        <v>2840000</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>46</v>
+      </c>
+      <c r="B457">
+        <v>440000</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>48</v>
+      </c>
+      <c r="B458">
+        <v>1920000</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>52</v>
+      </c>
+      <c r="B459">
+        <v>3000000</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>47</v>
+      </c>
+      <c r="B460">
+        <v>500000</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>45</v>
+      </c>
+      <c r="B461">
+        <v>520000</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>46</v>
+      </c>
+      <c r="B462">
+        <v>560000</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>48</v>
+      </c>
+      <c r="B463">
+        <v>580000</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>45</v>
+      </c>
+      <c r="B464">
+        <v>440000</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>47</v>
+      </c>
+      <c r="B465">
+        <v>980000</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>48</v>
+      </c>
+      <c r="B466">
+        <v>820000</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>45</v>
+      </c>
+      <c r="B467">
+        <v>440000</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>46</v>
+      </c>
+      <c r="B468">
+        <v>460000</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>47</v>
+      </c>
+      <c r="B469">
+        <v>400000</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>49</v>
+      </c>
+      <c r="B470">
+        <v>560000</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>47</v>
+      </c>
+      <c r="B471">
+        <v>600000</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>29</v>
+      </c>
+      <c r="B472">
+        <v>860000</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>31</v>
+      </c>
+      <c r="B473">
+        <v>360000</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>31</v>
+      </c>
+      <c r="B474">
+        <v>1480000</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>27</v>
+      </c>
+      <c r="B475">
+        <v>2740000</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>21</v>
+      </c>
+      <c r="B476">
+        <v>320000</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>28</v>
+      </c>
+      <c r="B477">
+        <v>880000</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>47</v>
+      </c>
+      <c r="B478">
+        <v>500000</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>45</v>
+      </c>
+      <c r="B479">
+        <v>520000</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>46</v>
+      </c>
+      <c r="B480">
+        <v>560000</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>48</v>
+      </c>
+      <c r="B481">
+        <v>580000</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>45</v>
+      </c>
+      <c r="B482">
+        <v>440000</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>47</v>
+      </c>
+      <c r="B483">
+        <v>980000</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>48</v>
+      </c>
+      <c r="B484">
+        <v>820000</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>45</v>
+      </c>
+      <c r="B485">
+        <v>440000</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>46</v>
+      </c>
+      <c r="B486">
+        <v>460000</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>47</v>
+      </c>
+      <c r="B487">
+        <v>400000</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>49</v>
+      </c>
+      <c r="B488">
+        <v>560000</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>47</v>
+      </c>
+      <c r="B489">
+        <v>600000</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>29</v>
+      </c>
+      <c r="B490">
+        <v>860000</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>31</v>
+      </c>
+      <c r="B491">
+        <v>360000</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>31</v>
+      </c>
+      <c r="B492">
+        <v>1480000</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>27</v>
+      </c>
+      <c r="B493">
+        <v>2740000</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>21</v>
+      </c>
+      <c r="B494">
+        <v>320000</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>28</v>
+      </c>
+      <c r="B495">
+        <v>880000</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>25</v>
+      </c>
+      <c r="B496">
+        <v>1800000</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>37</v>
+      </c>
+      <c r="B497">
+        <v>660000</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>35</v>
+      </c>
+      <c r="B498">
+        <v>760000</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>33</v>
+      </c>
+      <c r="B499">
+        <v>1380000</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>18</v>
+      </c>
+      <c r="B500">
+        <v>1720000</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>22</v>
+      </c>
+      <c r="B501">
+        <v>1100000</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
